--- a/docs/Planificación EPG3308 - 2021.xlsx
+++ b/docs/Planificación EPG3308 - 2021.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cl154598324\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\computacion-estadistica-EPG3308\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40BD027B-C7D7-41C9-87B1-8D68B3AF82AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CB5E9F6-5187-4C9B-8E45-4E2024F5564F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
@@ -335,7 +335,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -402,6 +402,12 @@
       <b/>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0" tint="-0.14999847407452621"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -546,8 +552,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+  <cellXfs count="54">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -566,7 +572,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -581,9 +587,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -614,9 +617,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -632,83 +632,86 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -930,18 +933,18 @@
   </sheetPr>
   <dimension ref="A1:AA999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="14.42578125" style="7"/>
-    <col min="2" max="2" width="11.85546875" style="29" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" style="29" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="27" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" style="27" customWidth="1"/>
     <col min="4" max="4" width="11.140625" style="7" customWidth="1"/>
     <col min="5" max="5" width="23.140625" style="7" customWidth="1"/>
-    <col min="6" max="6" width="77.140625" style="30" customWidth="1"/>
+    <col min="6" max="6" width="77.140625" style="28" customWidth="1"/>
     <col min="7" max="16384" width="14.42578125" style="7"/>
   </cols>
   <sheetData>
@@ -961,7 +964,7 @@
       <c r="E1" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="F1" s="54" t="s">
+      <c r="F1" s="49" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="5"/>
@@ -1000,7 +1003,7 @@
       <c r="E2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="51" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1015,10 +1018,10 @@
         <v>44275</v>
       </c>
       <c r="D3" s="11"/>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="51" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1032,13 +1035,13 @@
       <c r="C4" s="10">
         <v>44282</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="13" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1055,14 +1058,14 @@
       <c r="D5" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="13" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="76.5">
+    <row r="6" spans="1:27" ht="51">
       <c r="A6" s="8" t="s">
         <v>16</v>
       </c>
@@ -1073,10 +1076,10 @@
         <v>44303</v>
       </c>
       <c r="D6" s="11"/>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="51" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1091,10 +1094,10 @@
         <v>25</v>
       </c>
       <c r="D7" s="11"/>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="51" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1102,22 +1105,22 @@
       <c r="A8" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="19">
+      <c r="B8" s="18">
         <v>44315</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="22" t="s">
+      <c r="G8" s="21" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1125,40 +1128,40 @@
       <c r="A9" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="37">
+      <c r="B9" s="33">
         <v>44323</v>
       </c>
-      <c r="C9" s="37">
+      <c r="C9" s="33">
         <v>44324</v>
       </c>
-      <c r="D9" s="38" t="s">
+      <c r="D9" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="E9" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="F9" s="23" t="s">
+      <c r="F9" s="51" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:27" ht="102">
-      <c r="A10" s="35" t="s">
+      <c r="A10" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="39">
+      <c r="B10" s="35">
         <v>44336</v>
       </c>
-      <c r="C10" s="40" t="s">
+      <c r="C10" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="41"/>
-      <c r="E10" s="36" t="s">
+      <c r="D10" s="37"/>
+      <c r="E10" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="G10" s="22" t="s">
+      <c r="G10" s="21" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1173,10 +1176,10 @@
         <v>44345</v>
       </c>
       <c r="D11" s="11"/>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="F11" s="24" t="s">
+      <c r="F11" s="52" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1187,19 +1190,19 @@
       <c r="B12" s="10">
         <v>44351</v>
       </c>
-      <c r="C12" s="37">
+      <c r="C12" s="33">
         <v>44352</v>
       </c>
-      <c r="D12" s="43" t="s">
+      <c r="D12" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="E12" s="25" t="s">
+      <c r="E12" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="F12" s="34" t="s">
+      <c r="F12" s="53" t="s">
         <v>74</v>
       </c>
-      <c r="G12" s="26" t="s">
+      <c r="G12" s="24" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1207,22 +1210,22 @@
       <c r="A13" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="45" t="s">
+      <c r="B13" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="C13" s="48" t="s">
+      <c r="C13" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="D13" s="44" t="s">
+      <c r="D13" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="E13" s="46" t="s">
+      <c r="E13" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="F13" s="47" t="s">
+      <c r="F13" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="G13" s="22" t="s">
+      <c r="G13" s="21" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1237,10 +1240,10 @@
         <v>56</v>
       </c>
       <c r="D14" s="11"/>
-      <c r="E14" s="42" t="s">
+      <c r="E14" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="F14" s="28" t="s">
+      <c r="F14" s="26" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1255,10 +1258,10 @@
         <v>44372</v>
       </c>
       <c r="D15" s="11"/>
-      <c r="E15" s="21" t="s">
+      <c r="E15" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="F15" s="24" t="s">
+      <c r="F15" s="22" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1272,13 +1275,13 @@
       <c r="C16" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="D16" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="E16" s="21" t="s">
+      <c r="E16" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="F16" s="14" t="s">
+      <c r="F16" s="13" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1292,47 +1295,47 @@
       <c r="C17" s="10">
         <v>44387</v>
       </c>
-      <c r="D17" s="27" t="s">
+      <c r="D17" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="E17" s="21" t="s">
+      <c r="E17" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="F17" s="14" t="s">
+      <c r="F17" s="13" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="24" customHeight="1">
-      <c r="A18" s="49"/>
-      <c r="B18" s="50"/>
-      <c r="C18" s="50"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="52"/>
-      <c r="F18" s="53"/>
+      <c r="A18" s="45"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="22"/>
     </row>
     <row r="19" spans="1:6" ht="24" customHeight="1">
       <c r="D19" s="6"/>
     </row>
     <row r="20" spans="1:6" ht="63.75">
       <c r="D20" s="6"/>
-      <c r="E20" s="31" t="s">
+      <c r="E20" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="F20" s="32" t="s">
+      <c r="F20" s="29" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="51">
       <c r="D21" s="6"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="33" t="s">
+      <c r="E21" s="50"/>
+      <c r="F21" s="30" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="12.75">
       <c r="D22" s="6"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="32" t="s">
+      <c r="E22" s="50"/>
+      <c r="F22" s="29" t="s">
         <v>69</v>
       </c>
     </row>
